--- a/web/excel/harajatlar.xlsx
+++ b/web/excel/harajatlar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web\OpenServer\domains\soglomdi\web\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583A875-4792-4DD5-B5E1-CEAF65B4FE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B0ECA1-93F3-451A-857A-B9F11019CB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,15 +207,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -224,6 +218,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +536,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
     <col min="1" max="1" width="5.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="37" style="3" customWidth="1"/>
     <col min="3" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="13" customWidth="1"/>
     <col min="6" max="8" width="24.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" style="3" customWidth="1"/>
@@ -558,7 +558,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="11"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -575,23 +575,23 @@
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="7"/>
       <c r="M2" s="6"/>
       <c r="N2" s="8"/>
@@ -603,7 +603,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -628,7 +628,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">

--- a/web/excel/harajatlar.xlsx
+++ b/web/excel/harajatlar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web\OpenServer\domains\soglomdi\web\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Avaz\Соглом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B0ECA1-93F3-451A-857A-B9F11019CB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{239DFED3-1F25-4684-8931-1DA16637F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+  <si>
+    <t>Саналар</t>
+  </si>
+  <si>
+    <t>2022-02-01 - 2022-02-03</t>
+  </si>
+  <si>
+    <t>Филиал</t>
+  </si>
+  <si>
+    <t>Барчаси</t>
+  </si>
+  <si>
+    <t>Чиким тури</t>
+  </si>
+  <si>
+    <t>Пластик/накд</t>
+  </si>
+  <si>
+    <t>Реферал код</t>
+  </si>
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Филиал</t>
-  </si>
-  <si>
     <t>Юборган ходим</t>
   </si>
   <si>
@@ -37,12 +55,12 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>Чиким тури</t>
-  </si>
-  <si>
     <t>Кушимча маълумот</t>
   </si>
   <si>
+    <t>Яратилган сана</t>
+  </si>
+  <si>
     <t>Сана (переод)</t>
   </si>
   <si>
@@ -62,25 +80,13 @@
   </si>
   <si>
     <t>Реферал тел раками</t>
-  </si>
-  <si>
-    <t>Яратилган сана</t>
-  </si>
-  <si>
-    <t>Саналар</t>
-  </si>
-  <si>
-    <t>Пластик/накд</t>
-  </si>
-  <si>
-    <t>Реферал код</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -88,26 +94,21 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF003F2F"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF003F2F"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color rgb="FF003F2F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,11 +124,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6E5CB"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -139,29 +135,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,7 +166,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -180,49 +176,49 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,217 +529,147 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="13" customWidth="1"/>
-    <col min="6" max="8" width="24.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
-    <col min="13" max="15" width="24.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="34.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="2"/>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:16" ht="27.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>13</v>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>